--- a/SESCaseMC.xlsx
+++ b/SESCaseMC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF6B037-40FA-4A46-A109-73CD5A374C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B862500D-41D7-4746-8223-B05D7513D2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="4188" windowWidth="19440" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -594,26 +600,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="189.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="55.85546875" customWidth="1"/>
-    <col min="8" max="8" width="90.5703125" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="189.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="55.88671875" customWidth="1"/>
+    <col min="8" max="8" width="90.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -674,7 +680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>18</v>
       </c>
@@ -688,7 +694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>22</v>
       </c>
@@ -702,7 +708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>26</v>
       </c>
@@ -716,7 +722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>30</v>
       </c>
@@ -730,7 +736,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>34</v>
       </c>
@@ -744,7 +750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>38</v>
       </c>
@@ -758,7 +764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
         <v>42</v>
       </c>
@@ -769,7 +775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -795,7 +801,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
         <v>19</v>
       </c>
@@ -806,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -829,10 +835,13 @@
         <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>18</v>
       </c>
@@ -846,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>22</v>
       </c>
@@ -860,7 +869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>26</v>
       </c>
@@ -874,7 +883,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>30</v>
       </c>
@@ -888,7 +897,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>34</v>
       </c>
@@ -902,7 +911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>38</v>
       </c>
@@ -916,7 +925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F19" t="s">
         <v>42</v>
       </c>
@@ -927,7 +936,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -950,10 +959,13 @@
         <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F21" t="s">
         <v>19</v>
       </c>
@@ -964,7 +976,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F22" t="s">
         <v>23</v>
       </c>
